--- a/src/test/resources/xls_data/Data.xlsx
+++ b/src/test/resources/xls_data/Data.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15135" windowHeight="3600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12870" windowHeight="3450"/>
   </bookViews>
   <sheets>
-    <sheet name="PortfolioSuite" sheetId="1" r:id="rId1"/>
+    <sheet name="Portfolio Suite" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="Stock Suite" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I10"/>
+  <oleSize ref="A1:K10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Runmode</t>
   </si>
@@ -85,9 +85,6 @@
     <t>deleteportfolio</t>
   </si>
   <si>
-    <t>portfolio1</t>
-  </si>
-  <si>
     <t>portfolio22</t>
   </si>
   <si>
@@ -149,6 +146,15 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>portfolio1a2bcdefg</t>
   </si>
 </sst>
 </file>
@@ -553,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,15 +617,15 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -632,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -783,7 +791,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,16 +802,16 @@
         <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,44 +819,44 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,53 +867,53 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>43</v>
@@ -913,7 +921,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,16 +932,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,19 +949,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
